--- a/AutoTest/ExcelScript/Selenium.xlsx
+++ b/AutoTest/ExcelScript/Selenium.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
     <sheet name="V01" sheetId="4" r:id="rId2"/>
+    <sheet name="CHK" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -121,34 +122,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>框</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -173,110 +146,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>MeiDe123456.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -621,30 +491,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$link:刷新;1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$click</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$id:nc_1_n1z;1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$xpath://button[@type='submit'];1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$cssselect:button.next-btn.next-btn-primary.next-btn-small.next-date-picker-quick-tool-ok</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -864,34 +710,6 @@
   </si>
   <si>
     <r>
-      <t>生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
@@ -1290,6 +1108,997 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>透</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单导</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户编码</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>开票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>营销中心</t>
+  </si>
+  <si>
+    <t>收货仓库</t>
+  </si>
+  <si>
+    <t>产品编码</t>
+  </si>
+  <si>
+    <t>申请价格</t>
+  </si>
+  <si>
+    <t>申请数量</t>
+  </si>
+  <si>
+    <t>客户订单号</t>
+  </si>
+  <si>
+    <t>开票单位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>求和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客户订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>开票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>开票单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>求和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://web.txcs.tmall.com/pages/chaoshi/settlement_finance_orders?__IFRAME_CONTAINER_IFRAME_ID__=3#43031/43141</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$arg(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <t>登</t>
     </r>
@@ -1302,7 +2111,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>录</t>
+      <t>录页面</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -1319,24 +2128,244 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>选择页面</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细页面</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录录入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录按钮</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>选择</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细</t>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具寄售-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -1345,7 +2374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,6 +2423,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="NSimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1409,7 +2481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1445,13 +2517,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,7 +2573,25 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1761,7 +2879,9 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1805,18 +2925,18 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1825,18 +2945,18 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1845,13 +2965,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1867,14 +2987,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1884,31 +3004,39 @@
     <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1924,41 +3052,61 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1966,789 +3114,1151 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="J27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+      <c r="G34" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="H34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F35" s="2"/>
+      <c r="G35" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="4" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G42" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G43" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="J42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G44" s="4" t="s">
+      <c r="J43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G53" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G53" s="5"/>
       <c r="H53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G54" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G55" s="4" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G56" s="4" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G57" s="4" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I57" s="5"/>
+      <c r="J57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G58" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G60" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G61" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,4 +4268,330 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="8">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="8">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="8">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="8">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="8">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="8">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="8">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="8">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="8">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoTest/ExcelScript/Selenium.xlsx
+++ b/AutoTest/ExcelScript/Selenium.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
     <sheet name="V01" sheetId="4" r:id="rId2"/>
     <sheet name="CHK" sheetId="5" r:id="rId3"/>
+    <sheet name="V01_bk" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="200">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -503,10 +504,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -579,67 +576,27 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>13</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>17</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>18</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>19</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>20</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -858,7 +815,7 @@
   </si>
   <si>
     <r>
-      <t>$link:下</t>
+      <t>下</t>
     </r>
     <r>
       <rPr>
@@ -870,6 +827,106 @@
         <scheme val="minor"/>
       </rPr>
       <t>载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>$xpath://div[contains(text(),'$arg(1)')]/../..//div[contains(text(),'-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锅</t>
     </r>
     <r>
       <rPr>
@@ -880,85 +937,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明</t>
+      <t>具寄售')]/../..//a[contains(text(),'明</t>
     </r>
     <r>
       <rPr>
@@ -970,34 +949,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://div[contains(text(),'$arg(1)')]/../..//div[contains(text(),'-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锅</t>
     </r>
     <r>
       <rPr>
@@ -1008,7 +959,54 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>具寄售')]/../..//a[contains(text(),'明</t>
+      <t>出')]</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具寄售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
     </r>
     <r>
       <rPr>
@@ -1024,385 +1022,352 @@
     <r>
       <rPr>
         <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>天猫超市</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>透</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单导</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户编码</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>开票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>出')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>具寄售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>天猫超市</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>列</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>销</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>售</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>透</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>退</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>商</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>销</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>售</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单导</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>品价格</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户编码</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>营销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>编码</t>
     </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>仓库编码</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>开票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1425,20 +1390,87 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编码</t>
-    </r>
-    <phoneticPr fontId="3"/>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>营销中心</t>
+  </si>
+  <si>
+    <t>收货仓库</t>
+  </si>
+  <si>
+    <t>产品编码</t>
+  </si>
+  <si>
+    <t>申请价格</t>
+  </si>
+  <si>
+    <t>申请数量</t>
+  </si>
+  <si>
+    <t>客户订单号</t>
+  </si>
+  <si>
+    <t>开票单位</t>
   </si>
   <si>
     <r>
@@ -1461,89 +1493,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品数量</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>退</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货单</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>批量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>营销中心</t>
-  </si>
-  <si>
-    <t>收货仓库</t>
-  </si>
-  <si>
-    <t>产品编码</t>
-  </si>
-  <si>
-    <t>申请价格</t>
-  </si>
-  <si>
-    <t>申请数量</t>
-  </si>
-  <si>
-    <t>客户订单号</t>
-  </si>
-  <si>
-    <t>开票单位</t>
-  </si>
-  <si>
+      <t>品</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1553,7 +1504,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>产</t>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>求和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
     </r>
     <r>
       <rPr>
@@ -1564,7 +1532,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -1575,24 +1543,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>编码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>求和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>项</t>
+      <t>产</t>
     </r>
     <r>
       <rPr>
@@ -1603,8 +1554,11 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1625,21 +1579,81 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品数量</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>营销</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>产</t>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客户订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>开票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
     </r>
     <r>
       <rPr>
@@ -1650,81 +1664,72 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品价格</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>客户编码</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>开票单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>营销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>仓库编码</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>仓库编码</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>客户订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>开票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
     </r>
     <r>
       <rPr>
@@ -1735,13 +1740,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>开票单</t>
+      <t>中心</t>
     </r>
     <r>
       <rPr>
@@ -1749,58 +1748,24 @@
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>备</t>
-    </r>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>户编码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>营销</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
     </r>
     <r>
       <rPr>
@@ -1811,7 +1776,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>中心</t>
+      <t>品价格</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>求和</t>
     </r>
     <r>
       <rPr>
@@ -1822,21 +1793,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>编码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>产</t>
+      <t>项</t>
     </r>
     <r>
       <rPr>
@@ -1847,13 +1804,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品价格</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>求和</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -1864,7 +1815,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项</t>
+      <t>产</t>
     </r>
     <r>
       <rPr>
@@ -1875,7 +1826,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
+      <t>品数量</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>客</t>
     </r>
     <r>
       <rPr>
@@ -1886,7 +1843,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>产</t>
+      <t>户订单</t>
     </r>
     <r>
       <rPr>
@@ -1897,14 +1854,11 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>品数量</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>客</t>
-    </r>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1914,7 +1868,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>户订单</t>
+      <t>备</t>
     </r>
     <r>
       <rPr>
@@ -1925,448 +1879,479 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>注</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://web.txcs.tmall.com/pages/chaoshi/settlement_finance_orders?__IFRAME_CONTAINER_IFRAME_ID__=3#43031/43141</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$arg(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录页面</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>分店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择页面</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细页面</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录录入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录按钮</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具寄售-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://web.txcs.tmall.com/pages/chaoshi/settlement_finance_orders?__IFRAME_CONTAINER_IFRAME_ID__=3#43031/43141</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>$xpath://input[@placeholder='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>注</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://web.txcs.tmall.com/pages/chaoshi/settlement_finance_orders?__IFRAME_CONTAINER_IFRAME_ID__=3#43031/43141</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$arg(2)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录页面</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>分店</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选择页面</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细页面</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录录入</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录按钮</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选择</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器-明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>具寄售-明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>厨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
+      <t>日期']</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click:2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$frameout</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$frame</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$link:更多</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2925,13 +2910,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2945,13 +2930,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2965,13 +2950,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2990,11 +2975,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3006,15 +2991,12 @@
     <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="119" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="78.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3030,13 +3012,8 @@
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3064,17 +3041,8 @@
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -3087,26 +3055,15 @@
         <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>162</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3071,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
@@ -3125,16 +3082,13 @@
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -3147,22 +3101,15 @@
         <v>43</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3177,22 +3124,13 @@
         <v>47</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -3204,23 +3142,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -3232,21 +3161,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3258,21 +3180,14 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -3282,21 +3197,14 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -3310,19 +3218,14 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3334,23 +3237,14 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -3360,21 +3254,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3382,25 +3269,20 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3412,806 +3294,513 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="G22" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="H29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="F36" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="G36" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="F37" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="G37" s="4" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="G39" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="4" t="s">
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G42" s="4" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="4" t="s">
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G45" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G46" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G47" s="4" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G48" s="4" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G49" s="4"/>
+        <v>191</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G49" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K49" s="4" t="s">
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G50" s="5"/>
+      <c r="H50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G53" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G51" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G62" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G53" s="5"/>
-      <c r="H53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G57" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G58" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G59" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G60" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G61" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G63" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G65" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G66" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="H67" s="4" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="H68" s="4" t="s">
         <v>74</v>
       </c>
@@ -4219,44 +3808,16 @@
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G69" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G70" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G71" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
-      <c r="G72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
@@ -4292,13 +3853,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -4306,46 +3867,46 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4353,25 +3914,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4379,25 +3940,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8">
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -4405,25 +3966,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G6" s="8">
         <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -4431,25 +3992,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C7" s="8">
         <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E7" s="8">
         <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G7" s="8">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -4457,25 +4018,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E8" s="8">
         <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G8" s="8">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -4483,25 +4044,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C9" s="8">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E9" s="8">
         <v>12</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8">
         <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -4509,25 +4070,25 @@
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C10" s="8">
         <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E10" s="8">
         <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G10" s="8">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -4535,25 +4096,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C11" s="8">
         <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E11" s="8">
         <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G11" s="8">
         <v>14</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4561,25 +4122,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C12" s="8">
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E12" s="8">
         <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G12" s="8">
         <v>16</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4594,4 +4155,1289 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+      <c r="G31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="2"/>
+      <c r="G32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+      <c r="G34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F35" s="2"/>
+      <c r="G35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
+      <c r="G36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G53" s="5"/>
+      <c r="H53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G58" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G62" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/AutoTest/ExcelScript/Selenium.xlsx
+++ b/AutoTest/ExcelScript/Selenium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\AutoTest\AutoTest\ExcelScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\AutoTest\AutoTest\ExcelScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178097E-0677-404D-BBC3-44DE5B707EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="205">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -170,7 +171,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -247,7 +248,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -258,7 +259,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -275,7 +276,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -286,7 +287,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -300,7 +301,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -311,7 +312,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -328,7 +329,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -339,7 +340,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -350,7 +351,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -375,7 +376,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -386,7 +387,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -403,7 +404,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -414,7 +415,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -439,7 +440,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -450,7 +451,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -519,7 +520,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -530,7 +531,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -611,7 +612,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -622,7 +623,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -633,7 +634,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +645,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -670,7 +671,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -681,7 +682,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -692,7 +693,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -721,7 +722,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -732,7 +733,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -743,7 +744,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -754,7 +755,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -771,7 +772,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -782,7 +783,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -793,7 +794,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -804,7 +805,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -821,7 +822,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -832,7 +833,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -849,7 +850,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -860,7 +861,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -871,7 +872,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -882,7 +883,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -893,7 +894,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -904,7 +905,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -921,7 +922,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -932,7 +933,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -943,7 +944,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -954,7 +955,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -968,7 +969,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -979,7 +980,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -990,7 +991,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1001,7 +1002,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1012,7 +1013,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1023,7 +1024,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1050,7 +1051,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1062,7 +1063,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1080,7 +1081,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1092,7 +1093,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1110,7 +1111,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1125,7 +1126,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1137,7 +1138,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1149,7 +1150,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1161,7 +1162,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1173,7 +1174,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1185,7 +1186,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1338,7 +1339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1349,7 +1350,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1360,7 +1361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1374,7 +1375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1385,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1403,7 +1404,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1415,7 +1416,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1427,7 +1428,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1439,7 +1440,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1477,7 +1478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1488,7 +1489,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1499,7 +1500,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1516,7 +1517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1527,7 +1528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1538,7 +1539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1549,7 +1550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1563,7 +1564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1574,7 +1575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1595,7 +1596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1606,7 +1607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1631,7 +1632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1648,7 +1649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1659,7 +1660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1676,7 +1677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1693,7 +1694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1710,7 +1711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1724,7 +1725,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1735,7 +1736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1746,7 +1747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1760,7 +1761,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1771,7 +1772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1788,7 +1789,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1799,7 +1800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1810,7 +1811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1821,7 +1822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1838,7 +1839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1849,7 +1850,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1863,7 +1864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1874,7 +1875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2031,7 +2032,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2048,7 +2049,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2065,7 +2066,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2082,7 +2083,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2099,7 +2100,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2116,7 +2117,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2127,7 +2128,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2138,7 +2139,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2155,7 +2156,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2166,7 +2167,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2177,7 +2178,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2188,7 +2189,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2202,7 +2203,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2213,7 +2214,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2224,7 +2225,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2235,7 +2236,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2252,7 +2253,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2263,7 +2264,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2274,7 +2275,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2285,7 +2286,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2310,7 +2311,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2321,7 +2322,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2335,14 +2336,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$click:2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$frameout</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2352,18 +2345,105 @@
   </si>
   <si>
     <t>$link:更多</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://portal.hemaos.com/pages/contract/download.html?__IFRAME_CONTAINER_IFRAME_ID__=4#43031/43141</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$xpath://tr[1]//a[contains(text(),'下载文件')]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-下载文件</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生活电器-下载文件</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具寄售-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>锅具寄售-下载文件</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sleep:4000</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2371,7 +2451,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2380,14 +2460,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2395,7 +2475,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2403,7 +2483,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2412,7 +2492,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2438,7 +2518,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2446,7 +2526,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2581,7 +2661,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2858,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2868,18 +2948,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2919,7 +2999,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -2939,7 +3019,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -2971,32 +3051,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="119" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3093,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3042,7 +3122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -3063,7 +3143,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -3088,7 +3168,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -3109,7 +3189,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3130,7 +3210,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +3229,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -3168,7 +3248,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3267,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="11.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -3204,7 +3284,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="11.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -3225,7 +3305,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3244,7 +3324,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -3261,7 +3341,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3282,7 +3362,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3381,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3313,7 +3393,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3323,7 +3403,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3335,7 +3415,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3343,31 +3423,33 @@
         <v>54</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3375,11 +3457,11 @@
         <v>157</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3387,11 +3469,11 @@
         <v>158</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3399,11 +3481,11 @@
         <v>159</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9">
       <c r="F25" s="2"/>
       <c r="G25" s="4" t="s">
         <v>160</v>
@@ -3413,7 +3495,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9">
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -3423,17 +3505,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9">
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
         <v>161</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9">
       <c r="F28" s="2"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4" t="s">
@@ -3441,7 +3523,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9">
       <c r="F29" s="2"/>
       <c r="G29" s="4" t="s">
         <v>162</v>
@@ -3451,7 +3533,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9">
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
         <v>162</v>
@@ -3461,7 +3543,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9">
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
         <v>79</v>
@@ -3471,7 +3553,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:9">
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
         <v>163</v>
@@ -3481,7 +3563,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:9">
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
         <v>164</v>
@@ -3491,7 +3573,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:9">
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="s">
         <v>86</v>
@@ -3501,7 +3583,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:9">
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
         <v>165</v>
@@ -3511,7 +3593,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:9">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3523,7 +3605,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:9">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3535,7 +3617,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:9">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3547,7 +3629,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:9">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3557,7 +3639,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:9">
       <c r="G40" s="4" t="s">
         <v>168</v>
       </c>
@@ -3566,7 +3648,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:9">
       <c r="G41" s="4" t="s">
         <v>82</v>
       </c>
@@ -3575,21 +3657,23 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:9">
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:9">
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
       <c r="G44" s="4" t="s">
         <v>169</v>
       </c>
@@ -3598,7 +3682,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:9">
       <c r="G45" s="4" t="s">
         <v>170</v>
       </c>
@@ -3607,16 +3691,16 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:9">
       <c r="G46" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:9">
       <c r="G47" s="4" t="s">
         <v>171</v>
       </c>
@@ -3625,16 +3709,16 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:9">
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
         <v>191</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
       <c r="G49" s="4" t="s">
         <v>89</v>
       </c>
@@ -3643,14 +3727,14 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="7:9">
       <c r="G50" s="5"/>
       <c r="H50" s="4" t="s">
         <v>147</v>
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="7:9">
       <c r="G51" s="4" t="s">
         <v>90</v>
       </c>
@@ -3659,7 +3743,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="7:9">
       <c r="G52" s="4" t="s">
         <v>172</v>
       </c>
@@ -3668,7 +3752,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="7:9">
       <c r="G53" s="4" t="s">
         <v>173</v>
       </c>
@@ -3677,7 +3761,7 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="7:9">
       <c r="G54" s="4" t="s">
         <v>173</v>
       </c>
@@ -3686,7 +3770,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="7:9">
       <c r="G55" s="4" t="s">
         <v>174</v>
       </c>
@@ -3695,7 +3779,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="7:9">
       <c r="G56" s="4" t="s">
         <v>174</v>
       </c>
@@ -3704,7 +3788,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="7:9">
       <c r="G57" s="4" t="s">
         <v>175</v>
       </c>
@@ -3713,7 +3797,7 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="7:9">
       <c r="G58" s="4" t="s">
         <v>176</v>
       </c>
@@ -3722,7 +3806,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="7:9">
       <c r="G59" s="4" t="s">
         <v>177</v>
       </c>
@@ -3731,7 +3815,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="7:9">
       <c r="G60" s="4" t="s">
         <v>178</v>
       </c>
@@ -3740,14 +3824,14 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="7:9">
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="7:9">
       <c r="G62" s="4" t="s">
         <v>179</v>
       </c>
@@ -3756,7 +3840,7 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="7:9">
       <c r="G63" s="4" t="s">
         <v>179</v>
       </c>
@@ -3765,21 +3849,23 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="7:9">
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="7:9">
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9">
       <c r="G66" s="4" t="s">
         <v>180</v>
       </c>
@@ -3788,7 +3874,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="7:9">
       <c r="G67" s="4" t="s">
         <v>180</v>
       </c>
@@ -3797,16 +3883,16 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="7:9">
       <c r="G68" s="4" t="s">
         <v>181</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="7:9">
       <c r="G69" s="4" t="s">
         <v>181</v>
       </c>
@@ -3832,26 +3918,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
@@ -3865,7 +3951,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>111</v>
       </c>
@@ -3883,7 +3969,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>107</v>
       </c>
@@ -3909,7 +3995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3935,7 +4021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3961,7 +4047,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>7</v>
       </c>
@@ -3987,7 +4073,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>8</v>
       </c>
@@ -4013,7 +4099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -4039,7 +4125,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>12</v>
       </c>
@@ -4065,7 +4151,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>14</v>
       </c>
@@ -4091,7 +4177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
         <v>17</v>
       </c>
@@ -4117,7 +4203,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -4158,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4169,24 +4255,24 @@
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="78.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4208,7 +4294,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4246,7 +4332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>48</v>
@@ -4278,7 +4364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -4306,7 +4392,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4334,7 +4420,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -4392,7 +4478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -4418,7 +4504,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4530,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="11.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -4468,7 +4554,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="11.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -4494,7 +4580,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4522,7 +4608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -4546,7 +4632,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -4572,7 +4658,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -4598,7 +4684,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4615,7 +4701,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4636,7 +4722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4655,7 +4741,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4674,7 +4760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4691,7 +4777,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4712,7 +4798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4731,7 +4817,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4752,7 +4838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4771,7 +4857,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12">
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -4784,7 +4870,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12">
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -4801,7 +4887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12">
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
         <v>85</v>
@@ -4818,7 +4904,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12">
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -4831,7 +4917,7 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12">
       <c r="F29" s="2"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4" t="s">
@@ -4846,7 +4932,7 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12">
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
         <v>78</v>
@@ -4863,7 +4949,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12">
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
         <v>78</v>
@@ -4880,7 +4966,7 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12">
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
         <v>79</v>
@@ -4899,7 +4985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12">
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
         <v>79</v>
@@ -4916,7 +5002,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12">
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="s">
         <v>86</v>
@@ -4931,7 +5017,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12">
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
         <v>86</v>
@@ -4946,7 +5032,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12">
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
         <v>80</v>
@@ -4963,7 +5049,7 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12">
       <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
         <v>80</v>
@@ -4980,7 +5066,7 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5001,7 +5087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5020,7 +5106,7 @@
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5035,7 +5121,7 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5052,7 +5138,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12">
       <c r="G42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5068,7 +5154,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12">
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
         <v>93</v>
@@ -5082,7 +5168,7 @@
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12">
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
         <v>73</v>
@@ -5098,7 +5184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12">
       <c r="G45" s="4" t="s">
         <v>87</v>
       </c>
@@ -5114,7 +5200,7 @@
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12">
       <c r="G46" s="4" t="s">
         <v>87</v>
       </c>
@@ -5128,7 +5214,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12">
       <c r="G47" s="4" t="s">
         <v>88</v>
       </c>
@@ -5142,7 +5228,7 @@
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12">
       <c r="G48" s="4" t="s">
         <v>88</v>
       </c>
@@ -5158,7 +5244,7 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="7:12">
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
         <v>16</v>
@@ -5172,7 +5258,7 @@
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="7:12">
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
         <v>67</v>
@@ -5188,7 +5274,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="7:12">
       <c r="G51" s="4" t="s">
         <v>89</v>
       </c>
@@ -5204,7 +5290,7 @@
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="7:12">
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
         <v>67</v>
@@ -5216,7 +5302,7 @@
       </c>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="7:12">
       <c r="G53" s="5"/>
       <c r="H53" s="4" t="s">
         <v>147</v>
@@ -5230,7 +5316,7 @@
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="7:12">
       <c r="G54" s="4" t="s">
         <v>90</v>
       </c>
@@ -5246,7 +5332,7 @@
       </c>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="7:12">
       <c r="G55" s="4" t="s">
         <v>90</v>
       </c>
@@ -5262,7 +5348,7 @@
       </c>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="7:12">
       <c r="G56" s="4" t="s">
         <v>173</v>
       </c>
@@ -5280,7 +5366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="7:12">
       <c r="G57" s="4" t="s">
         <v>173</v>
       </c>
@@ -5296,7 +5382,7 @@
       </c>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="7:12">
       <c r="G58" s="4" t="s">
         <v>174</v>
       </c>
@@ -5305,7 +5391,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="7:12">
       <c r="G59" s="4" t="s">
         <v>174</v>
       </c>
@@ -5314,7 +5400,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="7:12">
       <c r="G60" s="4" t="s">
         <v>175</v>
       </c>
@@ -5323,7 +5409,7 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="7:12">
       <c r="G61" s="4" t="s">
         <v>175</v>
       </c>
@@ -5332,7 +5418,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="7:12">
       <c r="G62" s="4" t="s">
         <v>177</v>
       </c>
@@ -5341,7 +5427,7 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="7:12">
       <c r="G63" s="4" t="s">
         <v>177</v>
       </c>
@@ -5350,14 +5436,14 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="7:12">
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="7:9">
       <c r="G65" s="4" t="s">
         <v>179</v>
       </c>
@@ -5366,7 +5452,7 @@
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="7:9">
       <c r="G66" s="4" t="s">
         <v>179</v>
       </c>
@@ -5375,21 +5461,21 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="7:9">
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="7:9">
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="7:9">
       <c r="G69" s="4" t="s">
         <v>180</v>
       </c>
@@ -5398,7 +5484,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="7:9">
       <c r="G70" s="4" t="s">
         <v>180</v>
       </c>
@@ -5407,7 +5493,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="7:9">
       <c r="G71" s="4" t="s">
         <v>181</v>
       </c>
@@ -5416,7 +5502,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="7:9">
       <c r="G72" s="4" t="s">
         <v>181</v>
       </c>

--- a/AutoTest/ExcelScript/Selenium.xlsx
+++ b/AutoTest/ExcelScript/Selenium.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\AutoTest\AutoTest\ExcelScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\AutoTest\AutoTest\ExcelScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178097E-0677-404D-BBC3-44DE5B707EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
     <sheet name="V01" sheetId="4" r:id="rId2"/>
-    <sheet name="CHK" sheetId="5" r:id="rId3"/>
-    <sheet name="V01_bk" sheetId="6" r:id="rId4"/>
+    <sheet name="V02" sheetId="7" r:id="rId3"/>
+    <sheet name="CHK" sheetId="5" r:id="rId4"/>
+    <sheet name="V01_bk" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="229">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -132,11 +132,88 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>$frame</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MeiDe123456.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$xpath://button[@type='submit']</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:nc_1_n1z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>水平滑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:fm-login-password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$frame</t>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:fm-login-id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>qiuyi2@midea.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sleep:500</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -144,11 +221,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MeiDe123456.</t>
+    <t>$class:sub-supplier-list</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -156,83 +229,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$xpath://button[@type='submit']</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$id:nc_1_n1z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>水平滑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>块</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$id:fm-login-password</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$id:fm-login-id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>qiuyi2@midea.com</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$sleep:500</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$class:sub-supplier-list</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$click</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$goto:https://txcs.tmall.com/login/ts4</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -248,7 +244,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -259,7 +255,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -276,7 +272,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -287,7 +283,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -301,7 +297,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -312,7 +308,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -329,7 +325,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -340,7 +336,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -351,7 +347,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -376,7 +372,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -387,7 +383,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -404,7 +400,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -415,7 +411,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -440,7 +436,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -451,7 +447,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -520,7 +516,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -531,7 +527,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -612,7 +608,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -623,7 +619,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -634,7 +630,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -645,7 +641,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -671,7 +667,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,7 +678,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -693,7 +689,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -722,7 +718,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -733,7 +729,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -744,7 +740,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -755,7 +751,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -772,7 +768,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -783,7 +779,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -794,7 +790,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -805,7 +801,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -822,7 +818,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -833,7 +829,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -850,7 +846,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -861,7 +857,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -872,7 +868,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +879,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -894,7 +890,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -905,7 +901,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -922,7 +918,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -933,7 +929,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -944,7 +940,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -955,7 +951,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -969,7 +965,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -980,7 +976,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -991,7 +987,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1002,7 +998,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1013,7 +1009,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1024,7 +1020,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1051,7 +1047,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1063,7 +1059,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1081,7 +1077,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1093,7 +1089,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1111,7 +1107,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1126,7 +1122,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1138,7 +1134,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1150,7 +1146,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1162,7 +1158,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1174,7 +1170,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1186,7 +1182,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1339,7 +1335,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1350,7 +1346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1361,7 +1357,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1375,7 +1371,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1386,7 +1382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1404,7 +1400,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1416,7 +1412,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1428,7 +1424,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1440,7 +1436,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1478,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1489,7 +1485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1500,7 +1496,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1517,7 +1513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1528,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1539,7 +1535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1550,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1564,7 +1560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1575,7 +1571,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1596,7 +1592,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1607,7 +1603,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1632,7 +1628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1649,7 +1645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1660,7 +1656,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1677,7 +1673,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1694,7 +1690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1711,7 +1707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1725,7 +1721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1736,7 +1732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1747,7 +1743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1761,7 +1757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1772,7 +1768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1789,7 +1785,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1800,7 +1796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1811,7 +1807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1822,7 +1818,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1839,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1850,7 +1846,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1864,7 +1860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1875,7 +1871,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1897,10 +1893,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1925,14 +1917,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1945,10 +1929,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1973,22 +1953,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2032,7 +2000,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2049,7 +2017,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2066,7 +2034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2083,7 +2051,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2100,7 +2068,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2117,7 +2085,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2128,7 +2096,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2139,7 +2107,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2156,7 +2124,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2167,7 +2135,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2178,7 +2146,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2189,7 +2157,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2203,7 +2171,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2214,7 +2182,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2225,7 +2193,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2236,7 +2204,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2253,7 +2221,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2264,7 +2232,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2275,7 +2243,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2286,7 +2254,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2300,43 +2268,235 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$link:更多</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://portal.hemaos.com/pages/contract/download.html?__IFRAME_CONTAINER_IFRAME_ID__=4#43031/43141</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$xpath://tr[1]//a[contains(text(),'下载文件')]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-下载文件</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生活电器-下载文件</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具寄售-明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>锅具寄售-下载文件</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sleep:4000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://txcs.tmall.com/login/ts4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>水平滑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://web.txcs.tmall.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://web.txcs.tmall.com/pages/chaoshi/settlement_finance_orders?__IFRAME_CONTAINER_IFRAME_ID__=3#43031/43141</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>$xpath://input[@placeholder='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+    <t>$sleep:1000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sleep:500</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$hmove:300$0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>$findtext:1$li$-生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>日期']</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$click</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
+      <t>器</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$xpath://div[@id='nocaptcha-password' and @style='display: block;']//span[@id='nc_1_n1z']$1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sleep:1000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$frame:0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$default</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$cssselect:.fm-button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>26</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2344,106 +2504,76 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$link:更多</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$goto:https://web.txcs.tmall.com/?frameUrl=https://portal.hemaos.com/pages/contract/download.html?__IFRAME_CONTAINER_IFRAME_ID__=4#43031/43141</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$xpath://tr[1]//a[contains(text(),'下载文件')]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>厨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-下载文件</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>生活电器-下载文件</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>锅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>具寄售-明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>锅具寄售-下载文件</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$sleep:4000</t>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>V02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:https://signin.midea.com/login?service=http://cims.midea.com/cims</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:username</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user--------------------</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pas--------------------</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$cssselect:.login-button</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2451,7 +2581,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2460,14 +2590,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2475,7 +2605,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2483,7 +2613,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2492,7 +2622,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2518,7 +2648,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2526,7 +2656,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2661,7 +2791,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2938,28 +3068,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +3109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2990,18 +3120,18 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -3010,18 +3140,18 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3030,13 +3160,73 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3051,32 +3241,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="119" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3093,7 +3283,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3122,784 +3312,844 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="H12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="C16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
+        <v>207</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9">
+        <v>186</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
       <c r="G25" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="3:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
+        <v>74</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F28" s="2"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="3:9">
+        <v>183</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F29" s="2"/>
       <c r="G29" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="4" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:9">
+        <v>60</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="G36" s="4" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G40" s="4" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="3:9">
+        <v>69</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="3:9">
-      <c r="G43" s="4"/>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G43" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="H43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9">
+        <v>90</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G44" s="4" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="3:9">
-      <c r="G45" s="4" t="s">
-        <v>170</v>
-      </c>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="3:9">
-      <c r="G46" s="4" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G51" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="3:9">
-      <c r="G47" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="3:9">
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G55" s="5"/>
+      <c r="H55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="5"/>
-      <c r="H50" s="4" t="s">
+      <c r="H56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G58" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G60" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="7:9">
-      <c r="G51" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="7:9">
-      <c r="G52" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="7:9">
-      <c r="G53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="7:9">
-      <c r="G54" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="7:9">
-      <c r="G56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="7:9">
-      <c r="G57" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="7:9">
-      <c r="G58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="7:9">
-      <c r="G59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="7:9">
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="7:9">
-      <c r="G62" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="7:9">
-      <c r="G63" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="7:9">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="7:9">
-      <c r="G65" s="4"/>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="H65" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9">
+        <v>69</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G66" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="7:9">
-      <c r="G67" s="4" t="s">
-        <v>180</v>
-      </c>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="7:9">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G68" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="7:9">
+        <v>102</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G69" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3918,315 +4168,927 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="2"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8">
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="8">
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="8">
         <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8">
         <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="8">
         <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="8">
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="8">
         <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="8">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="8">
         <v>12</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="8">
         <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="8">
         <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="8">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="8">
         <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="8">
         <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="8">
         <v>14</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="8">
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="8">
         <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="8">
         <v>16</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4243,8 +5105,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4255,24 +5117,24 @@
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="78.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4289,12 +5151,12 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4332,39 +5194,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -4372,60 +5234,60 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
@@ -4439,23 +5301,23 @@
         <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
@@ -4465,35 +5327,35 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
@@ -4504,360 +5366,360 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1">
+    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1">
+    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="G22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -4866,149 +5728,149 @@
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F29" s="2"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="4"/>
@@ -5017,195 +5879,195 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
       <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="4"/>
@@ -5214,300 +6076,300 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="7:12">
+    <row r="49" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="7:12">
+    <row r="50" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="7:12">
-      <c r="G51" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="7:12">
+    <row r="52" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="7:12">
+    <row r="53" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G53" s="5"/>
       <c r="H53" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="7:12">
+    <row r="54" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="7:12">
-      <c r="G55" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="7:12">
+    <row r="56" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G56" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="7:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G57" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="7:12">
+    <row r="58" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G58" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="7:12">
+    <row r="59" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G59" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="7:12">
+    <row r="60" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G60" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="7:12">
+    <row r="61" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G61" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="7:12">
+    <row r="62" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G62" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="7:12">
+    <row r="63" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G63" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="7:12">
+    <row r="64" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="7:9">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G65" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="7:9">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G66" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="7:9">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="7:9">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="7:9">
-      <c r="G69" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="7:9">
-      <c r="G70" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="7:9">
-      <c r="G71" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="7:9">
-      <c r="G72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I72" s="5"/>
     </row>

--- a/AutoTest/ExcelScript/Selenium.xlsx
+++ b/AutoTest/ExcelScript/Selenium.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="183">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -1680,23 +1680,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>水平滑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>块</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$sleep:1000</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1746,10 +1729,6 @@
   </si>
   <si>
     <t>$cssselect:.fm-button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$frame</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1886,27 +1865,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$frameout</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>qiuyi2@midea.com</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MeiDe123456.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$back</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1914,366 +1877,67 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:hjnid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$goto:http://172.21.4.88:8080/hd/i000010/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$pic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:usrid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#FF0000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:pswd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>456</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>789</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:f_showPswd10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:f_saveHjnid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:f_saveUsrid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$sleep:1000</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://div[contains(text(),'$arg(1)')]/../..//div[contains(text(),'—厨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>')]/../..//a[contains(text(),'明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://div[contains(text(),'$arg(1)')]/../..//div[contains(text(),'-生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器')]/../..//a[contains(text(),'明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://tr[1]//a[contains(text(),'下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://div[contains(text(),'$arg(1)')]/../..//div[contains(text(),'-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>具寄售')]/../..//a[contains(text(),'明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>$xpath://tr[1]//a[contains(text(),'下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件')]</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:.fm-button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$link:刷新$1$1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$link:刷新$1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show$5$$2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>生活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器-明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生活电器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show$5$$6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$cssselect:iframe.iframe-page.normal-iframe.show$5$$4</t>
+    <t>$cssselect:button.large.pink-usui submit</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2507,6 +2171,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2786,7 +2455,9 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2882,10 +2553,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>69</v>
@@ -2900,10 +2571,10 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>69</v>
@@ -2921,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>69</v>
@@ -2949,11 +2620,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2998,19 +2669,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -3022,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>13</v>
@@ -3035,23 +2706,21 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
@@ -3063,97 +2732,97 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="I8" s="4"/>
@@ -3161,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -3171,9 +2840,11 @@
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3192,7 +2863,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="D10" s="5"/>
       <c r="I10" s="4"/>
@@ -3204,15 +2875,17 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3221,19 +2894,17 @@
         <v>31</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
@@ -3241,22 +2912,24 @@
       <c r="G12" s="1"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3265,751 +2938,108 @@
         <v>113</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>185</v>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>124</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="I23" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I29" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I45" s="4"/>
-      <c r="J45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="I48" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I50" s="4"/>
-      <c r="J50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I51" s="4"/>
-      <c r="J51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I52" s="4"/>
-      <c r="J52" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I54" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I57" s="4"/>
-      <c r="J57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I58" s="4"/>
-      <c r="J58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I59" s="4"/>
-      <c r="J59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I60" s="4"/>
-      <c r="J60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I61" s="4"/>
-      <c r="J61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I62" s="4"/>
-      <c r="J62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I63" s="4"/>
-      <c r="J63" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I64" s="4"/>
-      <c r="J64" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I65" s="4"/>
-      <c r="J65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I67" s="4"/>
-      <c r="J67" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I68" s="4"/>
-      <c r="J68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I70" s="4"/>
-      <c r="J70" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I71" s="4"/>
-      <c r="J71" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I73" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I74" s="4"/>
-      <c r="J74" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I75" s="4"/>
-      <c r="J75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I76" s="4"/>
-      <c r="J76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I77" s="4"/>
-      <c r="J77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L77" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4075,7 +3105,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -4106,10 +3136,10 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4124,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -4156,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -4172,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -4204,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
@@ -4217,7 +3247,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
@@ -4232,7 +3262,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>124</v>
@@ -5033,7 +4063,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -5045,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -5057,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>13</v>
@@ -5073,14 +4103,14 @@
         <v>138</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>125</v>
@@ -5123,10 +4153,10 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -5288,7 +4318,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>28</v>
@@ -5311,7 +4341,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
@@ -5349,7 +4379,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>124</v>
@@ -5389,7 +4419,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
@@ -5443,7 +4473,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -5496,7 +4526,7 @@
         <v>51</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -5516,7 +4546,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L27" s="5"/>
     </row>
@@ -5720,7 +4750,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L46" s="5"/>
     </row>
@@ -5778,7 +4808,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L52" s="5"/>
     </row>
@@ -5958,7 +4988,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L71" s="5"/>
     </row>
